--- a/data/question_scene.xlsx
+++ b/data/question_scene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyiming\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55BAA70-1BB8-48D7-BDDD-CA3B8E1F1A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD94A6-9FCD-4A21-8817-65335FD43543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77F95C1F-6AED-4BFD-A6BF-C3DCD398CA81}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
-  <si>
-    <t xml:space="preserve"> scene</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>奖励</t>
   </si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>刘一鸣的报销单</t>
-  </si>
-  <si>
-    <t>你好</t>
   </si>
   <si>
     <t>刘一鸣今年的报销单</t>
@@ -133,6 +127,10 @@
   </si>
   <si>
     <t>加工厂产值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,9 +200,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3FE16-4454-4D6A-BDC2-AB0C9E3A4BD6}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,138 +530,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -674,85 +669,77 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B23" xr:uid="{D4B3FE16-4454-4D6A-BDC2-AB0C9E3A4BD6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
-      <sortCondition descending="1" ref="A1:A23"/>
+  <autoFilter ref="A1:B22" xr:uid="{D4B3FE16-4454-4D6A-BDC2-AB0C9E3A4BD6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+      <sortCondition descending="1" ref="A1:A22"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
